--- a/biology/Médecine/Forfait_journalier_hospitalier/Forfait_journalier_hospitalier.xlsx
+++ b/biology/Médecine/Forfait_journalier_hospitalier/Forfait_journalier_hospitalier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le forfait journalier hospitalier représente la participation financière du patient aux frais d'hébergement et d'entretien entraînés par son hospitalisation. Il a été créé par la loi n° 83-25 du 19 janvier 1983[1] (dite Loi Bérégovoy du nom de Pierre Bérégovoy, ministre des Affaires sociales et de la Solidarité nationale) et est entré en vigueur le 1er avril 1983[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le forfait journalier hospitalier représente la participation financière du patient aux frais d'hébergement et d'entretien entraînés par son hospitalisation. Il a été créé par la loi n° 83-25 du 19 janvier 1983 (dite Loi Bérégovoy du nom de Pierre Bérégovoy, ministre des Affaires sociales et de la Solidarité nationale) et est entré en vigueur le 1er avril 1983.
 Ce forfait de 20 € ne doit pas être confondu avec les frais d'hospitalisation dont le montant peut varier de 1 000 à 5 000 € par jour suivant les spécialités médicales.
 </t>
         </is>
@@ -512,16 +524,88 @@
           <t>Modalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le forfait journalier est dû pour tout séjour supérieur à 24 heures dans un établissement hospitalier public ou privé, y compris le jour de sortie. La première journée est comprise dans le forfait lorsque le patient passe sa première nuit dans l'établissement.
 Cependant, si un séjour inférieur à 24 heures est à cheval sur deux journées calendaires, on compte le jour d'entrée et le jour de sortie, soit 2 jours.
 Cette somme correspond à une participation aux frais d'hôtellerie et de restauration de l'hôpital (repas, blanchisserie, nettoyage…). Lors de sa création en 1983 son montant était de 20 FRF (6,24 EUR2019).
-Mode de fixation
-Son montant actuel défini par arrêté ministériel[14] est de 20 € à compter du 1er janvier 2018, à comparer avec le coût journalier estimé par la Fédération hospitalière de France (FHF) à 32 €. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forfait_journalier_hospitalier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forfait_journalier_hospitalier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Modalités</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mode de fixation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son montant actuel défini par arrêté ministériel est de 20 € à compter du 1er janvier 2018, à comparer avec le coût journalier estimé par la Fédération hospitalière de France (FHF) à 32 €. 
 Ce forfait est fixé depuis le 1er janvier 2018 à 20 € par jour en hôpital ou en clinique et 15 € par jour dans le service psychiatrique d’un établissement de santé.
-Exonérations
-Certaines personnes sont exonérées du forfait hospitalier, notamment les personnes bénéficiant de la protection universelle maladie, de l'aide médicale d'État, les femmes enceintes, les accidentés du travail ou atteint de maladies professionnelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forfait_journalier_hospitalier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forfait_journalier_hospitalier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Modalités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Exonérations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines personnes sont exonérées du forfait hospitalier, notamment les personnes bénéficiant de la protection universelle maladie, de l'aide médicale d'État, les femmes enceintes, les accidentés du travail ou atteint de maladies professionnelles.
 La Caisse primaire d'assurance maladie (CPAM) ne rembourse pas le forfait hospitalier. Il est obligatoirement remboursé par les assurances complémentaires et mutuelles responsables.
 </t>
         </is>
